--- a/data/testedatasetv2b.xlsx
+++ b/data/testedatasetv2b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mr_league_2024\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tales\Documents\GitHub\mr_league_dashboard_2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="DataFrame" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4287" uniqueCount="79">
   <si>
     <t>GOL</t>
   </si>
@@ -668,8 +668,8 @@
   <dimension ref="A1:W4598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A906" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G934" sqref="G934"/>
+      <pane ySplit="1" topLeftCell="A1029" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1057" sqref="B1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34324,7 +34324,7 @@
         <v>39</v>
       </c>
       <c r="G920" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J920" s="5">
         <v>1</v>
@@ -34350,13 +34350,13 @@
         <v>77</v>
       </c>
       <c r="E921" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F921" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G921" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J921" s="5">
         <v>1</v>
@@ -34379,13 +34379,13 @@
         <v>77</v>
       </c>
       <c r="E922" s="5" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="F922" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G922" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J922" s="5">
         <v>1</v>
@@ -34408,13 +34408,13 @@
         <v>77</v>
       </c>
       <c r="E923" s="5" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F923" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G923" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J923" s="5">
         <v>1</v>
@@ -34437,13 +34437,13 @@
         <v>77</v>
       </c>
       <c r="E924" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F924" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G924" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J924" s="5">
         <v>1</v>
@@ -34469,13 +34469,13 @@
         <v>77</v>
       </c>
       <c r="E925" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F925" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G925" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J925" s="5">
         <v>1</v>
@@ -34488,736 +34488,4267 @@
       </c>
     </row>
     <row r="926" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A926" s="9"/>
-      <c r="B926" s="9"/>
-      <c r="G926" s="3"/>
+      <c r="A926" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C926" s="5">
+        <v>8</v>
+      </c>
+      <c r="D926" s="5">
+        <v>78</v>
+      </c>
+      <c r="E926" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F926" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G926" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H926" s="5">
+        <v>1</v>
+      </c>
+      <c r="M926" s="5">
+        <v>1</v>
+      </c>
+      <c r="W926" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="927" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A927" s="9"/>
-      <c r="B927" s="9"/>
-      <c r="G927" s="3"/>
+      <c r="A927" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C927" s="5">
+        <v>8</v>
+      </c>
+      <c r="D927" s="5">
+        <v>78</v>
+      </c>
+      <c r="E927" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F927" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G927" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H927" s="5">
+        <v>1</v>
+      </c>
+      <c r="M927" s="5">
+        <v>1</v>
+      </c>
+      <c r="W927" s="5">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="928" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A928" s="9"/>
-      <c r="B928" s="9"/>
-      <c r="G928" s="3"/>
-    </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A929" s="9"/>
-      <c r="B929" s="9"/>
-      <c r="G929" s="3"/>
-    </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A930" s="9"/>
-      <c r="B930" s="9"/>
-      <c r="G930" s="3"/>
-    </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A931" s="9"/>
-      <c r="B931" s="9"/>
-      <c r="G931" s="3"/>
-    </row>
-    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A932" s="9"/>
-      <c r="B932" s="9"/>
-      <c r="G932" s="3"/>
-    </row>
-    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A933" s="9"/>
-      <c r="B933" s="9"/>
-      <c r="G933" s="3"/>
-    </row>
-    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A934" s="9"/>
-      <c r="B934" s="9"/>
-      <c r="G934" s="3"/>
-    </row>
-    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A935" s="9"/>
-      <c r="B935" s="9"/>
-      <c r="G935" s="3"/>
-    </row>
-    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A936" s="9"/>
-      <c r="B936" s="9"/>
-      <c r="G936" s="3"/>
-    </row>
-    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A937" s="9"/>
-      <c r="B937" s="9"/>
-      <c r="G937" s="3"/>
-    </row>
-    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A938" s="9"/>
-      <c r="B938" s="9"/>
-      <c r="G938" s="3"/>
-    </row>
-    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A939" s="9"/>
-      <c r="B939" s="9"/>
-      <c r="G939" s="3"/>
-    </row>
-    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A940" s="9"/>
-      <c r="B940" s="9"/>
-      <c r="G940" s="3"/>
-    </row>
-    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A941" s="9"/>
-      <c r="B941" s="9"/>
-      <c r="G941" s="3"/>
-    </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A942" s="9"/>
-      <c r="B942" s="9"/>
-      <c r="G942" s="3"/>
-    </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A943" s="9"/>
-      <c r="B943" s="9"/>
-      <c r="G943" s="3"/>
-    </row>
-    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A944" s="9"/>
-      <c r="B944" s="9"/>
-      <c r="G944" s="3"/>
-    </row>
-    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A945" s="9"/>
-      <c r="B945" s="9"/>
-      <c r="G945" s="3"/>
-    </row>
-    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A946" s="9"/>
-      <c r="B946" s="9"/>
-      <c r="G946" s="3"/>
-    </row>
-    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A947" s="9"/>
-      <c r="B947" s="9"/>
-      <c r="G947" s="3"/>
-    </row>
-    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A948" s="9"/>
-      <c r="B948" s="9"/>
-      <c r="G948" s="3"/>
-    </row>
-    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A949" s="9"/>
-      <c r="B949" s="9"/>
-      <c r="G949" s="3"/>
-    </row>
-    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A950" s="9"/>
-      <c r="B950" s="9"/>
-      <c r="G950" s="3"/>
-    </row>
-    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A951" s="9"/>
-      <c r="B951" s="9"/>
-      <c r="G951" s="3"/>
-    </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A952" s="9"/>
-      <c r="B952" s="9"/>
-      <c r="G952" s="3"/>
-    </row>
-    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A953" s="9"/>
-      <c r="B953" s="9"/>
-      <c r="G953" s="3"/>
-    </row>
-    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A954" s="9"/>
-      <c r="B954" s="9"/>
-      <c r="G954" s="3"/>
-    </row>
-    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A955" s="9"/>
-      <c r="B955" s="9"/>
-      <c r="G955" s="3"/>
-    </row>
-    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A956" s="9"/>
-      <c r="B956" s="9"/>
-      <c r="G956" s="3"/>
-    </row>
-    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A957" s="9"/>
-      <c r="B957" s="9"/>
-      <c r="G957" s="3"/>
-    </row>
-    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A958" s="9"/>
-      <c r="B958" s="9"/>
-      <c r="G958" s="3"/>
-    </row>
-    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A959" s="9"/>
-      <c r="B959" s="9"/>
-      <c r="G959" s="3"/>
-    </row>
-    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A960" s="9"/>
-      <c r="B960" s="9"/>
-      <c r="G960" s="3"/>
-    </row>
-    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A961" s="9"/>
-      <c r="B961" s="9"/>
-      <c r="G961" s="3"/>
-    </row>
-    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A962" s="9"/>
-      <c r="B962" s="9"/>
-      <c r="G962" s="3"/>
-    </row>
-    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A963" s="9"/>
-      <c r="B963" s="9"/>
-      <c r="G963" s="3"/>
-    </row>
-    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A964" s="9"/>
-      <c r="B964" s="9"/>
-      <c r="G964" s="3"/>
-    </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A965" s="9"/>
-      <c r="B965" s="9"/>
-      <c r="G965" s="3"/>
-    </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A966" s="9"/>
-      <c r="B966" s="9"/>
-      <c r="G966" s="3"/>
-    </row>
-    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A967" s="9"/>
-      <c r="B967" s="9"/>
-      <c r="G967" s="3"/>
-    </row>
-    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A968" s="9"/>
-      <c r="B968" s="9"/>
-      <c r="G968" s="3"/>
-    </row>
-    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A969" s="9"/>
-      <c r="B969" s="9"/>
-      <c r="G969" s="3"/>
-    </row>
-    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A970" s="9"/>
-      <c r="B970" s="9"/>
-      <c r="G970" s="3"/>
-    </row>
-    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A971" s="9"/>
-      <c r="B971" s="9"/>
-      <c r="G971" s="3"/>
-    </row>
-    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A972" s="9"/>
-      <c r="B972" s="9"/>
-      <c r="G972" s="3"/>
-    </row>
-    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A973" s="9"/>
-      <c r="B973" s="9"/>
-      <c r="G973" s="3"/>
-    </row>
-    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A974" s="9"/>
-      <c r="B974" s="9"/>
-      <c r="G974" s="3"/>
-    </row>
-    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A975" s="9"/>
-      <c r="B975" s="9"/>
-      <c r="G975" s="3"/>
-    </row>
-    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A976" s="9"/>
-      <c r="B976" s="9"/>
-      <c r="G976" s="3"/>
-    </row>
-    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A977" s="9"/>
-      <c r="B977" s="9"/>
-      <c r="G977" s="3"/>
-    </row>
-    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A978" s="9"/>
-      <c r="B978" s="9"/>
-      <c r="G978" s="3"/>
-    </row>
-    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A979" s="9"/>
-      <c r="B979" s="9"/>
-      <c r="G979" s="3"/>
-    </row>
-    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A980" s="9"/>
-      <c r="B980" s="9"/>
-      <c r="G980" s="3"/>
-    </row>
-    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A981" s="9"/>
-      <c r="B981" s="9"/>
-      <c r="G981" s="3"/>
-    </row>
-    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A982" s="9"/>
-      <c r="B982" s="9"/>
-      <c r="G982" s="3"/>
-    </row>
-    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A983" s="9"/>
-      <c r="B983" s="9"/>
-      <c r="G983" s="3"/>
-    </row>
-    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A984" s="9"/>
-      <c r="B984" s="9"/>
-      <c r="G984" s="3"/>
-    </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A985" s="9"/>
-      <c r="B985" s="9"/>
-      <c r="G985" s="3"/>
-    </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A986" s="9"/>
-      <c r="B986" s="9"/>
-      <c r="G986" s="3"/>
-    </row>
-    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A987" s="9"/>
-      <c r="B987" s="9"/>
-      <c r="G987" s="3"/>
-    </row>
-    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A988" s="9"/>
-      <c r="B988" s="9"/>
-      <c r="G988" s="3"/>
-    </row>
-    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A989" s="9"/>
-      <c r="B989" s="9"/>
-      <c r="G989" s="3"/>
-    </row>
-    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A990" s="9"/>
-      <c r="B990" s="9"/>
-      <c r="G990" s="3"/>
-    </row>
-    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A991" s="9"/>
-      <c r="B991" s="9"/>
-      <c r="G991" s="3"/>
-    </row>
-    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A992" s="9"/>
-      <c r="B992" s="9"/>
-      <c r="G992" s="3"/>
-    </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A993" s="9"/>
-      <c r="B993" s="9"/>
-      <c r="G993" s="3"/>
-    </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A994" s="9"/>
-      <c r="B994" s="9"/>
-      <c r="G994" s="3"/>
-    </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A995" s="9"/>
-      <c r="B995" s="9"/>
-      <c r="G995" s="3"/>
-    </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A996" s="9"/>
-      <c r="B996" s="9"/>
-      <c r="G996" s="3"/>
-    </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A997" s="9"/>
-      <c r="B997" s="9"/>
-      <c r="G997" s="3"/>
-    </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A998" s="9"/>
-      <c r="B998" s="9"/>
-      <c r="G998" s="3"/>
-    </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A999" s="9"/>
-      <c r="B999" s="9"/>
-      <c r="G999" s="3"/>
-    </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1000" s="9"/>
-      <c r="B1000" s="9"/>
-      <c r="G1000" s="3"/>
-    </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1001" s="9"/>
-      <c r="B1001" s="9"/>
-      <c r="G1001" s="3"/>
-    </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1002" s="9"/>
-      <c r="B1002" s="9"/>
-      <c r="G1002" s="3"/>
-    </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1003" s="9"/>
-      <c r="B1003" s="9"/>
-      <c r="G1003" s="3"/>
-    </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1004" s="9"/>
-      <c r="B1004" s="9"/>
-      <c r="G1004" s="3"/>
-    </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1005" s="9"/>
-      <c r="B1005" s="9"/>
-      <c r="G1005" s="3"/>
-    </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1006" s="9"/>
-      <c r="B1006" s="9"/>
-      <c r="G1006" s="3"/>
-    </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1007" s="9"/>
-      <c r="B1007" s="9"/>
-      <c r="G1007" s="3"/>
-    </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1008" s="9"/>
-      <c r="B1008" s="9"/>
-      <c r="G1008" s="3"/>
-    </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1009" s="9"/>
-      <c r="B1009" s="9"/>
-      <c r="G1009" s="3"/>
-    </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1010" s="9"/>
-      <c r="B1010" s="9"/>
-      <c r="G1010" s="3"/>
-    </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1011" s="9"/>
-      <c r="B1011" s="9"/>
-      <c r="G1011" s="3"/>
-    </row>
-    <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1012" s="9"/>
-      <c r="B1012" s="9"/>
-      <c r="G1012" s="3"/>
-    </row>
-    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1013" s="9"/>
-      <c r="B1013" s="9"/>
-      <c r="G1013" s="3"/>
-    </row>
-    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1014" s="9"/>
-      <c r="B1014" s="9"/>
-      <c r="G1014" s="3"/>
-    </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1015" s="9"/>
-      <c r="B1015" s="9"/>
-      <c r="G1015" s="3"/>
-    </row>
-    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1016" s="9"/>
-      <c r="B1016" s="9"/>
-      <c r="G1016" s="3"/>
-    </row>
-    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1017" s="9"/>
-      <c r="B1017" s="9"/>
-      <c r="G1017" s="3"/>
-    </row>
-    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1018" s="9"/>
-      <c r="B1018" s="9"/>
-      <c r="G1018" s="3"/>
-    </row>
-    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1019" s="9"/>
-      <c r="B1019" s="9"/>
-      <c r="G1019" s="3"/>
-    </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1020" s="9"/>
-      <c r="B1020" s="9"/>
-      <c r="G1020" s="3"/>
-    </row>
-    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1021" s="9"/>
-      <c r="B1021" s="9"/>
-      <c r="G1021" s="3"/>
-    </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1022" s="9"/>
-      <c r="B1022" s="9"/>
-      <c r="G1022" s="3"/>
-    </row>
-    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1023" s="9"/>
-      <c r="B1023" s="9"/>
-      <c r="G1023" s="3"/>
-    </row>
-    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1024" s="9"/>
-      <c r="B1024" s="9"/>
-      <c r="G1024" s="3"/>
-    </row>
-    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1025" s="9"/>
-      <c r="B1025" s="9"/>
-      <c r="G1025" s="3"/>
-    </row>
-    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1026" s="9"/>
-      <c r="B1026" s="9"/>
-      <c r="G1026" s="3"/>
-    </row>
-    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1027" s="9"/>
-      <c r="B1027" s="9"/>
-      <c r="G1027" s="3"/>
-    </row>
-    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1028" s="9"/>
-      <c r="B1028" s="9"/>
-      <c r="G1028" s="3"/>
-    </row>
-    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1029" s="9"/>
-      <c r="B1029" s="9"/>
-      <c r="G1029" s="3"/>
-    </row>
-    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1030" s="9"/>
-      <c r="B1030" s="9"/>
-      <c r="G1030" s="3"/>
-    </row>
-    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1031" s="9"/>
-      <c r="B1031" s="9"/>
-      <c r="G1031" s="3"/>
-    </row>
-    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1032" s="9"/>
-      <c r="B1032" s="9"/>
-      <c r="G1032" s="3"/>
-    </row>
-    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1033" s="9"/>
-      <c r="B1033" s="9"/>
-      <c r="G1033" s="3"/>
-    </row>
-    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1034" s="9"/>
-      <c r="B1034" s="9"/>
-      <c r="G1034" s="3"/>
-    </row>
-    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1035" s="9"/>
-      <c r="B1035" s="9"/>
-      <c r="G1035" s="3"/>
-    </row>
-    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1036" s="9"/>
-      <c r="B1036" s="9"/>
-      <c r="G1036" s="3"/>
-    </row>
-    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1037" s="9"/>
-      <c r="B1037" s="9"/>
-      <c r="G1037" s="3"/>
-    </row>
-    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1038" s="9"/>
-      <c r="B1038" s="9"/>
-      <c r="G1038" s="3"/>
-    </row>
-    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1039" s="9"/>
-      <c r="B1039" s="9"/>
-      <c r="G1039" s="3"/>
-    </row>
-    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1040" s="9"/>
-      <c r="B1040" s="9"/>
-      <c r="G1040" s="3"/>
-    </row>
-    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1041" s="9"/>
-      <c r="B1041" s="9"/>
-      <c r="G1041" s="3"/>
-    </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1042" s="9"/>
-      <c r="B1042" s="9"/>
-      <c r="G1042" s="3"/>
-    </row>
-    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1043" s="9"/>
-      <c r="B1043" s="9"/>
-      <c r="G1043" s="3"/>
-    </row>
-    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1044" s="9"/>
-      <c r="B1044" s="9"/>
-      <c r="G1044" s="3"/>
-    </row>
-    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1045" s="9"/>
-      <c r="B1045" s="9"/>
-      <c r="G1045" s="3"/>
-    </row>
-    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1046" s="9"/>
-      <c r="B1046" s="9"/>
-      <c r="G1046" s="3"/>
-    </row>
-    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1047" s="9"/>
-      <c r="B1047" s="9"/>
-      <c r="G1047" s="3"/>
-    </row>
-    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1048" s="9"/>
-      <c r="B1048" s="9"/>
-      <c r="G1048" s="3"/>
-    </row>
-    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1049" s="9"/>
-      <c r="B1049" s="9"/>
-      <c r="G1049" s="3"/>
-    </row>
-    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1050" s="9"/>
-      <c r="B1050" s="9"/>
-      <c r="G1050" s="3"/>
-    </row>
-    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1051" s="9"/>
-      <c r="B1051" s="9"/>
-      <c r="G1051" s="3"/>
-    </row>
-    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1052" s="9"/>
-      <c r="B1052" s="9"/>
-      <c r="G1052" s="3"/>
-    </row>
-    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1053" s="9"/>
-      <c r="B1053" s="9"/>
-      <c r="G1053" s="3"/>
-    </row>
-    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1054" s="9"/>
-      <c r="B1054" s="9"/>
-      <c r="G1054" s="3"/>
-    </row>
-    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1055" s="9"/>
-      <c r="B1055" s="9"/>
-      <c r="G1055" s="3"/>
-    </row>
-    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1056" s="9"/>
-      <c r="B1056" s="9"/>
-      <c r="G1056" s="3"/>
-    </row>
-    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1057" s="9"/>
-      <c r="B1057" s="9"/>
-      <c r="G1057" s="3"/>
-    </row>
-    <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A928" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C928" s="5">
+        <v>8</v>
+      </c>
+      <c r="D928" s="5">
+        <v>78</v>
+      </c>
+      <c r="E928" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F928" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G928" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H928" s="5">
+        <v>1</v>
+      </c>
+      <c r="M928" s="5">
+        <v>1</v>
+      </c>
+      <c r="W928" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="929" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A929" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C929" s="5">
+        <v>8</v>
+      </c>
+      <c r="D929" s="5">
+        <v>78</v>
+      </c>
+      <c r="E929" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F929" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G929" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H929" s="5">
+        <v>1</v>
+      </c>
+      <c r="L929" s="5">
+        <v>2</v>
+      </c>
+      <c r="M929" s="5">
+        <v>1</v>
+      </c>
+      <c r="W929" s="5">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="930" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A930" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C930" s="5">
+        <v>8</v>
+      </c>
+      <c r="D930" s="5">
+        <v>78</v>
+      </c>
+      <c r="E930" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F930" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G930" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H930" s="5">
+        <v>1</v>
+      </c>
+      <c r="M930" s="5">
+        <v>1</v>
+      </c>
+      <c r="W930" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="931" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A931" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C931" s="5">
+        <v>8</v>
+      </c>
+      <c r="D931" s="5">
+        <v>78</v>
+      </c>
+      <c r="E931" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F931" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G931" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H931" s="5">
+        <v>1</v>
+      </c>
+      <c r="K931" s="5">
+        <v>2</v>
+      </c>
+      <c r="M931" s="5">
+        <v>1</v>
+      </c>
+      <c r="W931" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="932" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A932" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C932" s="5">
+        <v>8</v>
+      </c>
+      <c r="D932" s="5">
+        <v>78</v>
+      </c>
+      <c r="E932" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F932" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G932" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J932" s="5">
+        <v>1</v>
+      </c>
+      <c r="S932" s="5">
+        <v>2</v>
+      </c>
+      <c r="T932" s="5">
+        <v>1</v>
+      </c>
+      <c r="W932" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="933" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A933" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C933" s="5">
+        <v>8</v>
+      </c>
+      <c r="D933" s="5">
+        <v>78</v>
+      </c>
+      <c r="E933" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F933" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G933" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J933" s="5">
+        <v>1</v>
+      </c>
+      <c r="W933" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="934" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A934" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C934" s="5">
+        <v>8</v>
+      </c>
+      <c r="D934" s="5">
+        <v>78</v>
+      </c>
+      <c r="E934" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F934" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G934" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J934" s="5">
+        <v>1</v>
+      </c>
+      <c r="W934" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="935" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A935" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C935" s="5">
+        <v>8</v>
+      </c>
+      <c r="D935" s="5">
+        <v>78</v>
+      </c>
+      <c r="E935" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F935" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G935" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J935" s="5">
+        <v>1</v>
+      </c>
+      <c r="W935" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="936" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A936" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C936" s="5">
+        <v>8</v>
+      </c>
+      <c r="D936" s="5">
+        <v>78</v>
+      </c>
+      <c r="E936" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F936" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G936" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J936" s="5">
+        <v>1</v>
+      </c>
+      <c r="W936" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="937" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A937" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C937" s="5">
+        <v>8</v>
+      </c>
+      <c r="D937" s="5">
+        <v>78</v>
+      </c>
+      <c r="E937" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F937" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G937" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J937" s="5">
+        <v>1</v>
+      </c>
+      <c r="W937" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="938" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A938" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C938" s="5">
+        <v>8</v>
+      </c>
+      <c r="D938" s="5">
+        <v>79</v>
+      </c>
+      <c r="E938" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F938" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G938" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I938" s="5">
+        <v>1</v>
+      </c>
+      <c r="S938" s="5">
+        <v>1</v>
+      </c>
+      <c r="T938" s="5">
+        <v>1</v>
+      </c>
+      <c r="W938" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A939" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C939" s="5">
+        <v>8</v>
+      </c>
+      <c r="D939" s="5">
+        <v>79</v>
+      </c>
+      <c r="E939" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F939" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G939" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I939" s="5">
+        <v>1</v>
+      </c>
+      <c r="W939" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A940" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C940" s="5">
+        <v>8</v>
+      </c>
+      <c r="D940" s="5">
+        <v>79</v>
+      </c>
+      <c r="E940" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F940" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G940" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I940" s="5">
+        <v>1</v>
+      </c>
+      <c r="K940" s="5">
+        <v>1</v>
+      </c>
+      <c r="W940" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="941" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A941" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C941" s="5">
+        <v>8</v>
+      </c>
+      <c r="D941" s="5">
+        <v>79</v>
+      </c>
+      <c r="E941" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F941" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G941" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I941" s="5">
+        <v>1</v>
+      </c>
+      <c r="W941" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A942" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C942" s="5">
+        <v>8</v>
+      </c>
+      <c r="D942" s="5">
+        <v>79</v>
+      </c>
+      <c r="E942" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F942" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G942" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I942" s="5">
+        <v>1</v>
+      </c>
+      <c r="L942" s="5">
+        <v>1</v>
+      </c>
+      <c r="W942" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="943" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A943" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C943" s="5">
+        <v>8</v>
+      </c>
+      <c r="D943" s="5">
+        <v>79</v>
+      </c>
+      <c r="E943" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F943" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G943" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I943" s="5">
+        <v>1</v>
+      </c>
+      <c r="W943" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A944" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C944" s="5">
+        <v>8</v>
+      </c>
+      <c r="D944" s="5">
+        <v>79</v>
+      </c>
+      <c r="E944" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F944" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G944" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I944" s="5">
+        <v>1</v>
+      </c>
+      <c r="S944" s="5">
+        <v>1</v>
+      </c>
+      <c r="T944" s="5">
+        <v>1</v>
+      </c>
+      <c r="W944" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="945" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A945" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C945" s="5">
+        <v>8</v>
+      </c>
+      <c r="D945" s="5">
+        <v>79</v>
+      </c>
+      <c r="E945" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F945" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G945" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I945" s="5">
+        <v>1</v>
+      </c>
+      <c r="W945" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A946" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C946" s="5">
+        <v>8</v>
+      </c>
+      <c r="D946" s="5">
+        <v>79</v>
+      </c>
+      <c r="E946" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F946" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G946" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I946" s="5">
+        <v>1</v>
+      </c>
+      <c r="L946" s="5">
+        <v>1</v>
+      </c>
+      <c r="W946" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="947" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A947" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C947" s="5">
+        <v>8</v>
+      </c>
+      <c r="D947" s="5">
+        <v>79</v>
+      </c>
+      <c r="E947" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F947" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G947" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I947" s="5">
+        <v>1</v>
+      </c>
+      <c r="K947" s="5">
+        <v>1</v>
+      </c>
+      <c r="W947" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="948" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A948" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C948" s="5">
+        <v>8</v>
+      </c>
+      <c r="D948" s="5">
+        <v>79</v>
+      </c>
+      <c r="E948" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F948" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G948" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I948" s="5">
+        <v>1</v>
+      </c>
+      <c r="W948" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A949" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C949" s="5">
+        <v>8</v>
+      </c>
+      <c r="D949" s="5">
+        <v>79</v>
+      </c>
+      <c r="E949" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F949" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G949" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I949" s="5">
+        <v>1</v>
+      </c>
+      <c r="W949" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A950" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C950" s="5">
+        <v>8</v>
+      </c>
+      <c r="D950" s="5">
+        <v>80</v>
+      </c>
+      <c r="E950" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F950" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G950" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J950" s="5">
+        <v>1</v>
+      </c>
+      <c r="S950" s="5">
+        <v>2</v>
+      </c>
+      <c r="W950" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="951" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A951" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C951" s="5">
+        <v>8</v>
+      </c>
+      <c r="D951" s="5">
+        <v>80</v>
+      </c>
+      <c r="E951" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F951" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G951" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J951" s="5">
+        <v>1</v>
+      </c>
+      <c r="W951" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="952" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A952" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C952" s="5">
+        <v>8</v>
+      </c>
+      <c r="D952" s="5">
+        <v>80</v>
+      </c>
+      <c r="E952" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F952" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G952" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J952" s="5">
+        <v>1</v>
+      </c>
+      <c r="W952" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="953" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A953" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C953" s="5">
+        <v>8</v>
+      </c>
+      <c r="D953" s="5">
+        <v>80</v>
+      </c>
+      <c r="E953" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F953" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G953" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J953" s="5">
+        <v>1</v>
+      </c>
+      <c r="W953" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="954" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A954" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C954" s="5">
+        <v>8</v>
+      </c>
+      <c r="D954" s="5">
+        <v>80</v>
+      </c>
+      <c r="E954" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F954" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G954" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J954" s="5">
+        <v>1</v>
+      </c>
+      <c r="W954" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="955" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A955" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C955" s="5">
+        <v>8</v>
+      </c>
+      <c r="D955" s="5">
+        <v>80</v>
+      </c>
+      <c r="E955" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F955" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G955" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J955" s="5">
+        <v>1</v>
+      </c>
+      <c r="W955" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="956" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A956" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C956" s="5">
+        <v>8</v>
+      </c>
+      <c r="D956" s="5">
+        <v>80</v>
+      </c>
+      <c r="E956" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F956" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G956" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H956" s="5">
+        <v>1</v>
+      </c>
+      <c r="M956" s="5">
+        <v>1</v>
+      </c>
+      <c r="W956" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="957" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A957" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C957" s="5">
+        <v>8</v>
+      </c>
+      <c r="D957" s="5">
+        <v>80</v>
+      </c>
+      <c r="E957" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F957" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G957" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H957" s="5">
+        <v>1</v>
+      </c>
+      <c r="M957" s="5">
+        <v>1</v>
+      </c>
+      <c r="W957" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="958" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A958" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C958" s="5">
+        <v>8</v>
+      </c>
+      <c r="D958" s="5">
+        <v>80</v>
+      </c>
+      <c r="E958" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F958" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G958" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H958" s="5">
+        <v>1</v>
+      </c>
+      <c r="L958" s="5">
+        <v>1</v>
+      </c>
+      <c r="M958" s="5">
+        <v>1</v>
+      </c>
+      <c r="W958" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="959" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A959" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C959" s="5">
+        <v>8</v>
+      </c>
+      <c r="D959" s="5">
+        <v>80</v>
+      </c>
+      <c r="E959" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F959" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G959" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H959" s="5">
+        <v>1</v>
+      </c>
+      <c r="K959" s="5">
+        <v>1</v>
+      </c>
+      <c r="M959" s="5">
+        <v>1</v>
+      </c>
+      <c r="W959" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="960" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A960" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C960" s="5">
+        <v>8</v>
+      </c>
+      <c r="D960" s="5">
+        <v>80</v>
+      </c>
+      <c r="E960" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F960" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G960" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H960" s="5">
+        <v>1</v>
+      </c>
+      <c r="K960" s="5">
+        <v>1</v>
+      </c>
+      <c r="M960" s="5">
+        <v>1</v>
+      </c>
+      <c r="W960" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="961" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A961" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C961" s="5">
+        <v>8</v>
+      </c>
+      <c r="D961" s="5">
+        <v>80</v>
+      </c>
+      <c r="E961" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F961" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G961" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H961" s="5">
+        <v>1</v>
+      </c>
+      <c r="M961" s="5">
+        <v>1</v>
+      </c>
+      <c r="W961" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="962" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A962" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C962" s="5">
+        <v>8</v>
+      </c>
+      <c r="D962" s="5">
+        <v>81</v>
+      </c>
+      <c r="E962" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F962" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G962" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J962" s="5">
+        <v>1</v>
+      </c>
+      <c r="S962" s="5">
+        <v>2</v>
+      </c>
+      <c r="W962" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="963" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A963" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C963" s="5">
+        <v>8</v>
+      </c>
+      <c r="D963" s="5">
+        <v>81</v>
+      </c>
+      <c r="E963" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F963" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G963" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J963" s="5">
+        <v>1</v>
+      </c>
+      <c r="W963" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="964" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A964" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C964" s="5">
+        <v>8</v>
+      </c>
+      <c r="D964" s="5">
+        <v>81</v>
+      </c>
+      <c r="E964" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F964" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G964" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J964" s="5">
+        <v>1</v>
+      </c>
+      <c r="W964" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="965" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A965" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C965" s="5">
+        <v>8</v>
+      </c>
+      <c r="D965" s="5">
+        <v>81</v>
+      </c>
+      <c r="E965" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F965" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G965" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J965" s="5">
+        <v>1</v>
+      </c>
+      <c r="W965" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="966" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A966" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C966" s="5">
+        <v>8</v>
+      </c>
+      <c r="D966" s="5">
+        <v>81</v>
+      </c>
+      <c r="E966" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F966" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G966" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J966" s="5">
+        <v>1</v>
+      </c>
+      <c r="L966" s="5">
+        <v>1</v>
+      </c>
+      <c r="W966" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A967" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C967" s="5">
+        <v>8</v>
+      </c>
+      <c r="D967" s="5">
+        <v>81</v>
+      </c>
+      <c r="E967" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F967" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G967" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J967" s="5">
+        <v>1</v>
+      </c>
+      <c r="K967" s="5">
+        <v>1</v>
+      </c>
+      <c r="W967" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="968" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A968" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C968" s="5">
+        <v>8</v>
+      </c>
+      <c r="D968" s="5">
+        <v>81</v>
+      </c>
+      <c r="E968" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F968" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G968" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H968" s="5">
+        <v>1</v>
+      </c>
+      <c r="S968" s="5">
+        <v>1</v>
+      </c>
+      <c r="W968" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A969" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C969" s="5">
+        <v>8</v>
+      </c>
+      <c r="D969" s="5">
+        <v>81</v>
+      </c>
+      <c r="E969" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F969" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G969" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H969" s="5">
+        <v>1</v>
+      </c>
+      <c r="L969" s="5">
+        <v>1</v>
+      </c>
+      <c r="W969" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="970" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A970" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C970" s="5">
+        <v>8</v>
+      </c>
+      <c r="D970" s="5">
+        <v>81</v>
+      </c>
+      <c r="E970" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F970" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G970" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H970" s="5">
+        <v>1</v>
+      </c>
+      <c r="K970" s="5">
+        <v>1</v>
+      </c>
+      <c r="W970" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="971" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A971" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C971" s="5">
+        <v>8</v>
+      </c>
+      <c r="D971" s="5">
+        <v>81</v>
+      </c>
+      <c r="E971" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F971" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G971" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H971" s="5">
+        <v>1</v>
+      </c>
+      <c r="W971" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="972" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A972" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C972" s="5">
+        <v>8</v>
+      </c>
+      <c r="D972" s="5">
+        <v>81</v>
+      </c>
+      <c r="E972" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F972" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G972" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H972" s="5">
+        <v>1</v>
+      </c>
+      <c r="K972" s="5">
+        <v>1</v>
+      </c>
+      <c r="W972" s="5">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="973" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A973" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C973" s="5">
+        <v>8</v>
+      </c>
+      <c r="D973" s="5">
+        <v>81</v>
+      </c>
+      <c r="E973" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F973" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G973" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H973" s="5">
+        <v>1</v>
+      </c>
+      <c r="L973" s="5">
+        <v>1</v>
+      </c>
+      <c r="W973" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A974" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C974" s="5">
+        <v>8</v>
+      </c>
+      <c r="D974" s="5">
+        <v>82</v>
+      </c>
+      <c r="E974" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F974" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G974" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I974" s="5">
+        <v>1</v>
+      </c>
+      <c r="M974" s="5">
+        <v>1</v>
+      </c>
+      <c r="W974" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="975" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A975" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C975" s="5">
+        <v>8</v>
+      </c>
+      <c r="D975" s="5">
+        <v>82</v>
+      </c>
+      <c r="E975" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F975" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G975" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I975" s="5">
+        <v>1</v>
+      </c>
+      <c r="M975" s="5">
+        <v>1</v>
+      </c>
+      <c r="W975" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="976" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A976" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C976" s="5">
+        <v>8</v>
+      </c>
+      <c r="D976" s="5">
+        <v>82</v>
+      </c>
+      <c r="E976" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F976" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G976" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I976" s="5">
+        <v>1</v>
+      </c>
+      <c r="M976" s="5">
+        <v>1</v>
+      </c>
+      <c r="W976" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="977" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A977" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C977" s="5">
+        <v>8</v>
+      </c>
+      <c r="D977" s="5">
+        <v>82</v>
+      </c>
+      <c r="E977" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F977" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G977" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I977" s="5">
+        <v>1</v>
+      </c>
+      <c r="M977" s="5">
+        <v>1</v>
+      </c>
+      <c r="W977" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A978" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C978" s="5">
+        <v>8</v>
+      </c>
+      <c r="D978" s="5">
+        <v>82</v>
+      </c>
+      <c r="E978" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F978" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G978" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I978" s="5">
+        <v>1</v>
+      </c>
+      <c r="M978" s="5">
+        <v>1</v>
+      </c>
+      <c r="W978" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="979" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A979" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C979" s="5">
+        <v>8</v>
+      </c>
+      <c r="D979" s="5">
+        <v>82</v>
+      </c>
+      <c r="E979" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F979" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G979" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I979" s="5">
+        <v>1</v>
+      </c>
+      <c r="M979" s="5">
+        <v>1</v>
+      </c>
+      <c r="W979" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A980" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C980" s="5">
+        <v>8</v>
+      </c>
+      <c r="D980" s="5">
+        <v>82</v>
+      </c>
+      <c r="E980" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F980" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G980" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I980" s="5">
+        <v>1</v>
+      </c>
+      <c r="M980" s="5">
+        <v>1</v>
+      </c>
+      <c r="W980" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="981" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A981" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C981" s="5">
+        <v>8</v>
+      </c>
+      <c r="D981" s="5">
+        <v>82</v>
+      </c>
+      <c r="E981" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F981" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G981" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I981" s="5">
+        <v>1</v>
+      </c>
+      <c r="M981" s="5">
+        <v>1</v>
+      </c>
+      <c r="W981" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A982" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C982" s="5">
+        <v>8</v>
+      </c>
+      <c r="D982" s="5">
+        <v>82</v>
+      </c>
+      <c r="E982" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F982" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G982" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I982" s="5">
+        <v>1</v>
+      </c>
+      <c r="M982" s="5">
+        <v>1</v>
+      </c>
+      <c r="W982" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="983" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A983" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C983" s="5">
+        <v>8</v>
+      </c>
+      <c r="D983" s="5">
+        <v>82</v>
+      </c>
+      <c r="E983" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F983" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G983" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I983" s="5">
+        <v>1</v>
+      </c>
+      <c r="M983" s="5">
+        <v>1</v>
+      </c>
+      <c r="V983" s="5">
+        <v>1</v>
+      </c>
+      <c r="W983" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="984" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A984" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C984" s="5">
+        <v>8</v>
+      </c>
+      <c r="D984" s="5">
+        <v>82</v>
+      </c>
+      <c r="E984" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F984" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G984" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I984" s="5">
+        <v>1</v>
+      </c>
+      <c r="M984" s="5">
+        <v>1</v>
+      </c>
+      <c r="O984" s="5">
+        <v>1</v>
+      </c>
+      <c r="V984" s="5">
+        <v>1</v>
+      </c>
+      <c r="W984" s="5">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="985" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A985" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C985" s="5">
+        <v>8</v>
+      </c>
+      <c r="D985" s="5">
+        <v>82</v>
+      </c>
+      <c r="E985" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F985" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G985" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I985" s="5">
+        <v>1</v>
+      </c>
+      <c r="M985" s="5">
+        <v>1</v>
+      </c>
+      <c r="W985" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A986" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C986" s="5">
+        <v>8</v>
+      </c>
+      <c r="D986" s="5">
+        <v>83</v>
+      </c>
+      <c r="E986" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F986" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G986" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I986" s="5">
+        <v>1</v>
+      </c>
+      <c r="M986" s="5">
+        <v>1</v>
+      </c>
+      <c r="W986" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="987" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A987" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C987" s="5">
+        <v>8</v>
+      </c>
+      <c r="D987" s="5">
+        <v>83</v>
+      </c>
+      <c r="E987" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F987" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G987" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I987" s="5">
+        <v>1</v>
+      </c>
+      <c r="M987" s="5">
+        <v>1</v>
+      </c>
+      <c r="W987" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="988" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A988" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C988" s="5">
+        <v>8</v>
+      </c>
+      <c r="D988" s="5">
+        <v>83</v>
+      </c>
+      <c r="E988" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F988" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G988" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I988" s="5">
+        <v>1</v>
+      </c>
+      <c r="M988" s="5">
+        <v>1</v>
+      </c>
+      <c r="W988" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="989" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A989" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C989" s="5">
+        <v>8</v>
+      </c>
+      <c r="D989" s="5">
+        <v>83</v>
+      </c>
+      <c r="E989" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F989" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G989" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I989" s="5">
+        <v>1</v>
+      </c>
+      <c r="M989" s="5">
+        <v>1</v>
+      </c>
+      <c r="W989" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="990" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A990" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C990" s="5">
+        <v>8</v>
+      </c>
+      <c r="D990" s="5">
+        <v>83</v>
+      </c>
+      <c r="E990" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F990" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G990" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I990" s="5">
+        <v>1</v>
+      </c>
+      <c r="M990" s="5">
+        <v>1</v>
+      </c>
+      <c r="W990" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="991" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A991" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C991" s="5">
+        <v>8</v>
+      </c>
+      <c r="D991" s="5">
+        <v>83</v>
+      </c>
+      <c r="E991" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F991" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G991" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I991" s="5">
+        <v>1</v>
+      </c>
+      <c r="M991" s="5">
+        <v>1</v>
+      </c>
+      <c r="W991" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="992" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A992" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C992" s="5">
+        <v>8</v>
+      </c>
+      <c r="D992" s="5">
+        <v>83</v>
+      </c>
+      <c r="E992" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F992" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G992" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I992" s="5">
+        <v>1</v>
+      </c>
+      <c r="M992" s="5">
+        <v>1</v>
+      </c>
+      <c r="T992" s="5">
+        <v>2</v>
+      </c>
+      <c r="W992" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="993" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A993" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C993" s="5">
+        <v>8</v>
+      </c>
+      <c r="D993" s="5">
+        <v>83</v>
+      </c>
+      <c r="E993" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F993" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G993" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I993" s="5">
+        <v>1</v>
+      </c>
+      <c r="M993" s="5">
+        <v>1</v>
+      </c>
+      <c r="W993" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A994" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C994" s="5">
+        <v>8</v>
+      </c>
+      <c r="D994" s="5">
+        <v>83</v>
+      </c>
+      <c r="E994" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F994" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G994" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I994" s="5">
+        <v>1</v>
+      </c>
+      <c r="M994" s="5">
+        <v>1</v>
+      </c>
+      <c r="W994" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A995" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C995" s="5">
+        <v>8</v>
+      </c>
+      <c r="D995" s="5">
+        <v>83</v>
+      </c>
+      <c r="E995" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F995" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G995" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I995" s="5">
+        <v>1</v>
+      </c>
+      <c r="M995" s="5">
+        <v>1</v>
+      </c>
+      <c r="V995" s="5">
+        <v>1</v>
+      </c>
+      <c r="W995" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="996" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A996" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C996" s="5">
+        <v>8</v>
+      </c>
+      <c r="D996" s="5">
+        <v>83</v>
+      </c>
+      <c r="E996" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F996" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G996" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I996" s="5">
+        <v>1</v>
+      </c>
+      <c r="M996" s="5">
+        <v>1</v>
+      </c>
+      <c r="W996" s="5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="997" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A997" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C997" s="5">
+        <v>8</v>
+      </c>
+      <c r="D997" s="5">
+        <v>83</v>
+      </c>
+      <c r="E997" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F997" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G997" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I997" s="5">
+        <v>1</v>
+      </c>
+      <c r="M997" s="5">
+        <v>1</v>
+      </c>
+      <c r="W997" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="998" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A998" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C998" s="5">
+        <v>8</v>
+      </c>
+      <c r="D998" s="5">
+        <v>84</v>
+      </c>
+      <c r="E998" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F998" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G998" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I998" s="5">
+        <v>1</v>
+      </c>
+      <c r="S998" s="5">
+        <v>1</v>
+      </c>
+      <c r="W998" s="5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A999" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C999" s="5">
+        <v>8</v>
+      </c>
+      <c r="D999" s="5">
+        <v>84</v>
+      </c>
+      <c r="E999" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F999" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G999" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I999" s="5">
+        <v>1</v>
+      </c>
+      <c r="V999" s="5">
+        <v>1</v>
+      </c>
+      <c r="W999" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1000" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1000" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1000" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1000" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1000" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1000" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1000" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1000" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1001" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1001" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1001" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1001" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1001" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1001" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1001" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1001" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1002" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1002" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1002" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1002" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1002" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1002" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1002" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1002" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1002" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1003" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1003" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1003" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1003" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1003" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1003" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1003" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1003" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1003" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1004" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1004" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1004" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1004" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1004" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1004" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1004" s="5">
+        <v>1</v>
+      </c>
+      <c r="S1004" s="5">
+        <v>1</v>
+      </c>
+      <c r="T1004" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1004" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1005" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1005" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1005" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1005" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1005" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1005" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1005" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1005" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1006" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1006" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1006" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1006" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1006" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1006" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1006" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1006" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1007" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1007" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1007" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1007" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1007" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1007" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1007" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1007" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1007" s="5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1008" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1008" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1008" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1008" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1008" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1008" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1008" s="5">
+        <v>1</v>
+      </c>
+      <c r="V1008" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1008" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1009" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1009" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1009" s="5">
+        <v>84</v>
+      </c>
+      <c r="E1009" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1009" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1009" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1009" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1009" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1010" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1010" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1010" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1010" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1010" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1010" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1010" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1010" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1010" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1011" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1011" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1011" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1011" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1011" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1011" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1011" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1011" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1011" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1011" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1012" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1012" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1012" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1012" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1012" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1012" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1012" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1012" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1012" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1013" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1013" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1013" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1013" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1013" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1013" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1013" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1013" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1013" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1013" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1014" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1014" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1014" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1014" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1014" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1014" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1014" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1014" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1014" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1015" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1015" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1015" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1015" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1015" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1015" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1015" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1015" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1015" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1015" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1015" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1016" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1016" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1016" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1016" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1016" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1016" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1016" s="5">
+        <v>1</v>
+      </c>
+      <c r="S1016" s="5">
+        <v>2</v>
+      </c>
+      <c r="W1016" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1017" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1017" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1017" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1017" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1017" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1017" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1017" s="5">
+        <v>1</v>
+      </c>
+      <c r="V1017" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1017" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1018" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1018" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1018" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1018" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1018" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1018" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1018" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1018" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1019" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1019" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1019" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1019" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1019" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1019" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1019" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1019" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1020" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1020" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1020" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1020" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1020" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1020" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1020" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1020" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1021" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1021" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1021" s="5">
+        <v>85</v>
+      </c>
+      <c r="E1021" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1021" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1021" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1021" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1021" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1022" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1022" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1022" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1022" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1022" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1022" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1022" s="5">
+        <v>1</v>
+      </c>
+      <c r="S1022" s="5">
+        <v>2</v>
+      </c>
+      <c r="W1022" s="5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1023" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1023" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1023" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1023" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1023" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1023" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1023" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1023" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1024" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1024" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1024" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1024" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1024" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1024" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1024" s="5">
+        <v>1</v>
+      </c>
+      <c r="O1024" s="5">
+        <v>1</v>
+      </c>
+      <c r="V1024" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1024" s="5">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1025" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1025" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1025" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1025" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1025" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1025" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1025" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1025" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1026" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1026" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1026" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1026" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1026" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1026" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1026" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1026" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1027" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1027" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1027" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1027" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1027" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1027" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1027" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1027" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1028" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1028" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1028" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1028" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1028" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1028" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1028" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1028" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1028" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1029" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1029" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1029" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1029" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1029" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1029" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1029" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1029" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1029" s="5">
+        <v>1</v>
+      </c>
+      <c r="V1029" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1029" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1030" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1030" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1030" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1030" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1030" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1030" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1030" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1030" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1030" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1031" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1031" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1031" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1031" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1031" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1031" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1031" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1031" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1031" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1032" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1032" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1032" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1032" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1032" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1032" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1032" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1032" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1032" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1032" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1033" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1033" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1033" s="5">
+        <v>86</v>
+      </c>
+      <c r="E1033" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1033" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1033" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1033" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1033" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1033" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1033" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1033" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1034" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1034" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1034" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1034" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1034" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1034" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1034" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1034" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1034" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1035" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1035" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1035" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1035" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1035" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1035" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1035" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1035" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1035" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1036" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1036" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1036" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1036" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1036" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1036" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1036" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1036" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1036" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1037" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1037" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1037" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1037" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1037" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1037" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1037" s="5">
+        <v>1</v>
+      </c>
+      <c r="L1037" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1037" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1037" s="5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1038" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1038" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1038" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1038" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1038" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1038" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1038" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1038" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1038" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1039" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1039" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1039" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1039" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1039" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1039" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1039" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1039" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1039" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1039" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1040" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1040" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1040" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1040" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1040" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1040" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1040" s="5">
+        <v>1</v>
+      </c>
+      <c r="S1040" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1040" s="5">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1041" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1041" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1041" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1041" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1041" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1041" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1041" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1041" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1042" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1042" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1042" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1042" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1042" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1042" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1042" s="5">
+        <v>1</v>
+      </c>
+      <c r="V1042" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1042" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1043" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1043" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1043" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1043" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1043" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1043" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1043" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1043" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1044" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1044" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1044" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1044" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1044" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1044" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1044" s="5">
+        <v>1</v>
+      </c>
+      <c r="O1044" s="5">
+        <v>1</v>
+      </c>
+      <c r="V1044" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1044" s="5">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1045" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1045" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1045" s="5">
+        <v>87</v>
+      </c>
+      <c r="E1045" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1045" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1045" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1045" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1045" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1046" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1046" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1046" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1046" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1046" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1046" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1046" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1046" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1046" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1047" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1047" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1047" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1047" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1047" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1047" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1047" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1047" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1047" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1048" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1048" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1048" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1048" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1048" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1048" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1048" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1048" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1048" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1049" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1049" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1049" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1049" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1049" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1049" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1049" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1049" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1049" s="5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1050" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1050" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1050" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1050" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1050" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1050" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1050" s="5">
+        <v>1</v>
+      </c>
+      <c r="K1050" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1050" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1050" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1051" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1051" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1051" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1051" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1051" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1051" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1051" s="5">
+        <v>1</v>
+      </c>
+      <c r="M1051" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1051" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1052" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1052" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1052" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1052" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1052" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1052" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1052" s="5">
+        <v>1</v>
+      </c>
+      <c r="S1052" s="5">
+        <v>1</v>
+      </c>
+      <c r="T1052" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1052" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1053" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1053" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1053" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1053" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1053" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1053" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1053" s="5">
+        <v>1</v>
+      </c>
+      <c r="V1053" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1053" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1054" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1054" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1054" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1054" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1054" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1054" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1054" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1054" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1055" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1055" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1055" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1055" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1055" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1055" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1055" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1055" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1056" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1056" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1056" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1056" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1056" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1056" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1056" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1056" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1057" s="9">
+        <v>45369</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1057" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1057" s="5">
+        <v>88</v>
+      </c>
+      <c r="E1057" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1057" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1057" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1057" s="5">
+        <v>1</v>
+      </c>
+      <c r="W1057" s="5">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1058" s="9"/>
       <c r="B1058" s="9"/>
       <c r="G1058" s="3"/>
     </row>
-    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1059" s="9"/>
       <c r="B1059" s="9"/>
       <c r="G1059" s="3"/>
     </row>
-    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1060" s="9"/>
       <c r="B1060" s="9"/>
       <c r="G1060" s="3"/>
     </row>
-    <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1061" s="9"/>
       <c r="B1061" s="9"/>
       <c r="G1061" s="3"/>
     </row>
-    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1062" s="9"/>
       <c r="B1062" s="9"/>
       <c r="G1062" s="3"/>
     </row>
-    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1063" s="9"/>
       <c r="B1063" s="9"/>
       <c r="G1063" s="3"/>
     </row>
-    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1064" s="9"/>
       <c r="B1064" s="9"/>
       <c r="G1064" s="3"/>
     </row>
-    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1065" s="9"/>
       <c r="B1065" s="9"/>
       <c r="G1065" s="3"/>
     </row>
-    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1066" s="9"/>
       <c r="B1066" s="9"/>
       <c r="G1066" s="3"/>
     </row>
-    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1067" s="9"/>
       <c r="B1067" s="9"/>
       <c r="G1067" s="3"/>
     </row>
-    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1068" s="9"/>
       <c r="B1068" s="9"/>
       <c r="G1068" s="3"/>
     </row>
-    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1069" s="9"/>
       <c r="B1069" s="9"/>
       <c r="G1069" s="3"/>
     </row>
-    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1070" s="9"/>
       <c r="B1070" s="9"/>
       <c r="G1070" s="3"/>
     </row>
-    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1071" s="9"/>
       <c r="B1071" s="9"/>
       <c r="G1071" s="3"/>
     </row>
-    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1072" s="9"/>
       <c r="B1072" s="9"/>
       <c r="G1072" s="3"/>
@@ -49964,7 +53495,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W409"/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13">
       <formula1>0</formula1>
       <formula2>99999</formula2>

--- a/data/testedatasetv2b.xlsx
+++ b/data/testedatasetv2b.xlsx
@@ -668,8 +668,8 @@
   <dimension ref="A1:W4598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1029" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1057" sqref="B1057"/>
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +814,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>52</v>
@@ -2684,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>52</v>
@@ -3220,7 +3220,7 @@
         <v>22</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>52</v>
@@ -3754,7 +3754,7 @@
         <v>22</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>52</v>
@@ -4292,7 +4292,7 @@
         <v>22</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>52</v>
@@ -4832,7 +4832,7 @@
         <v>22</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>52</v>
@@ -6436,7 +6436,7 @@
         <v>22</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>52</v>
@@ -6966,7 +6966,7 @@
         <v>22</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>52</v>
@@ -8036,7 +8036,7 @@
         <v>22</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>52</v>
@@ -8570,7 +8570,7 @@
         <v>22</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>52</v>
@@ -9110,7 +9110,7 @@
         <v>22</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>52</v>
@@ -9910,7 +9910,7 @@
         <v>22</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>52</v>
@@ -11790,7 +11790,7 @@
         <v>22</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>52</v>
@@ -12582,7 +12582,7 @@
         <v>22</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G267" s="3" t="s">
         <v>52</v>
@@ -13120,7 +13120,7 @@
         <v>22</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>52</v>
@@ -14196,7 +14196,7 @@
         <v>22</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>52</v>
@@ -34440,7 +34440,7 @@
         <v>24</v>
       </c>
       <c r="F924" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G924" s="3" t="s">
         <v>54</v>
@@ -53495,7 +53495,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W409"/>
-  <dataValidations disablePrompts="1" count="5">
+  <dataValidations count="5">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:V13">
       <formula1>0</formula1>
       <formula2>99999</formula2>
